--- a/doc/excel/党建/[sample_partyMember]基层党组织领导班子成员录入样表.xlsx
+++ b/doc/excel/党建/[sample_partyMember]基层党组织领导班子成员录入样表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\廖敏工作文件夹\全部高校\组工一体化平台数据录入样表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\骥贤功能开发文件\20201127之后功能开发文件\主代码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18C6F2E-F23E-44E3-A5D1-69432043FC79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4973BFE0-CDEB-4177-A0AE-C74E333B375C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1695" yWindow="7275" windowWidth="25335" windowHeight="7710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>020100</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中共xxx大学教育学部委员会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>书记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,15 +50,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>83055</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>是</t>
+  </si>
+  <si>
+    <t>是否是管理员（留空默认为否）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中共****委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委员</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -96,6 +98,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF393939"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -110,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -133,13 +141,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,6 +181,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -491,9 +519,10 @@
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="16" style="7" customWidth="1"/>
     <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -501,37 +530,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="10">
+        <v>89031</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{E98689B0-ECC8-42B2-9740-C9B8799EAD05}">
       <formula1>"书记,副书记,委员"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{E86FF0C2-6ED4-46F8-9499-9F4BC05ED8CF}">
+      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
